--- a/data/trans_bre/P20_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>18,95%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 3,51</t>
+          <t>3,47; 33,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 11,25</t>
+          <t>-3,68; 26,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 9,17</t>
+          <t>5,38; 90,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 33,21</t>
+          <t>-6,62; 66,81</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-0,98%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,33</t>
+          <t>-6,02; 11,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 6,17</t>
+          <t>-8,94; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 4,15</t>
+          <t>-8,5; 19,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 16,94</t>
+          <t>-13,49; 13,06</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,02%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 3,05</t>
+          <t>-4,25; 12,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 1,45</t>
+          <t>-1,13; 16,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 9,57</t>
+          <t>-5,92; 21,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 3,78</t>
+          <t>-1,98; 35,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -0,15</t>
+          <t>-3,93; 6,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 2,78</t>
+          <t>-4,32; 9,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -0,5</t>
+          <t>-6,03; 10,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 6,85</t>
+          <t>-7,32; 19,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 7,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 8,05</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 11,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 15,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>36,74%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,95%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.15973445160675</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.659704070719952</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.3970126665143389</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1513811512813175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 33,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 26,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,38; 90,99</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 66,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.575825116024244</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.5358556624165</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.1046947443236945</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.09454807382309888</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35.49112241658264</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.5346734356574</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.9370564687623135</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5723057966573319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,02; 11,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 7,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 19,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; 13,06</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.517111826929431</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.08271945643197</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05334419446759598</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.0336273473356021</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.812458873255302</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.51241791139502</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06724676973458515</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1571022431662349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 12,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 16,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 21,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 35,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.59560306100281</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.246970343619397</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2140300826473763</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.09155819140262518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.904355027401452</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.083600832363945</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.07334591728861829</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1344787469694099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 6,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 9,84</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 10,01</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 19,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.253379998227127</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.910290232348635</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.05924958672712521</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.03246447139117035</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.99358585959051</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.40781251140922</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2147284528200364</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3468548804636606</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 7,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 8,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 11,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 15,09</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.656760183500565</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.812542625958103</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1052024755105748</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.04958244397104843</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9281311296193988</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.399933061682871</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.01282566787758612</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.05734414804316316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.30964914494669</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.373067696570315</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2275032235904378</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1553858346516563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
